--- a/results/gurobi_cplex_comparison/seed_40_k_15.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_15.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.015</v>
+        <v>0.425</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.018</v>
+        <v>0.594</v>
       </c>
       <c r="F3">
-        <v>0.04</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.012</v>
+        <v>0.819</v>
       </c>
       <c r="F4">
-        <v>0.033</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>1.066</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.024</v>
+        <v>1.331</v>
       </c>
       <c r="F6">
-        <v>0.041</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02</v>
+        <v>1.66</v>
       </c>
       <c r="F7">
-        <v>0.042</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.037</v>
+        <v>2.024</v>
       </c>
       <c r="F8">
-        <v>0.08699999999999999</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.054</v>
+        <v>2.422</v>
       </c>
       <c r="F9">
-        <v>0.063</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>2.832</v>
       </c>
       <c r="F10">
-        <v>0.044</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.021</v>
+        <v>3.264</v>
       </c>
       <c r="F11">
-        <v>0.062</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.051</v>
+        <v>3.766</v>
       </c>
       <c r="F12">
-        <v>113.293</v>
+        <v>97.217</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.054</v>
+        <v>4.251</v>
       </c>
       <c r="F13">
-        <v>88.029</v>
+        <v>93.46899999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.047</v>
+        <v>4.755</v>
       </c>
       <c r="F14">
-        <v>95.70099999999999</v>
+        <v>102.603</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.083</v>
+        <v>5.642</v>
       </c>
       <c r="F15">
-        <v>140.063</v>
+        <v>106.46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.043</v>
+        <v>5.873</v>
       </c>
       <c r="F16">
-        <v>98.88500000000001</v>
+        <v>64.495</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.037</v>
+        <v>6.495</v>
       </c>
       <c r="F17">
-        <v>77.976</v>
+        <v>88.992</v>
       </c>
     </row>
   </sheetData>
